--- a/flipkartAutomation/src/test/resources/testData/flipkartTestData.xlsx
+++ b/flipkartAutomation/src/test/resources/testData/flipkartTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15675" windowHeight="6525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15945" windowHeight="2250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Config" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O20"/>
+  <oleSize ref="A1:N6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -40,16 +40,10 @@
     <t>Search_Item</t>
   </si>
   <si>
-    <t>Browser</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
     <t>https://www.flipkart.com/</t>
-  </si>
-  <si>
-    <t>chrome</t>
   </si>
   <si>
     <t>Camera</t>
@@ -446,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -468,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -480,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,9 +488,6 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -505,10 +496,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
